--- a/포트폴리오 표준편차.xlsx
+++ b/포트폴리오 표준편차.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\부산은행\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365kornu-my.sharepoint.com/personal/11378_office_kornu_ac_kr/Documents/금융연수원/CPB/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="155" documentId="11_6594BB20D02CF2332D63D006CDC0B976ECEAFED3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C069869-F230-4ED3-87CD-9664DDCCCB66}"/>
   <bookViews>
-    <workbookView xWindow="12450" yWindow="150" windowWidth="11295" windowHeight="15015"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>자 산</t>
   </si>
@@ -223,19 +224,39 @@
     <t>합계</t>
   </si>
   <si>
-    <t>기대효용 A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기대효용 B</t>
+    <t>손실확률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액가중수익률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>듀레이션 계산 사례</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수익률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRR</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0000"/>
@@ -244,10 +265,9 @@
     <numFmt numFmtId="180" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="181" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="182" formatCode="#,##0.0000_ "/>
-    <numFmt numFmtId="183" formatCode="0.0000%"/>
-    <numFmt numFmtId="184" formatCode="0.000%"/>
+    <numFmt numFmtId="183" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,8 +377,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="KoPub돋움체 Light"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,8 +405,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -539,6 +573,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF565656"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF565656"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF565656"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -551,7 +598,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -603,9 +650,6 @@
     <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -618,16 +662,10 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -645,9 +683,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -657,9 +692,6 @@
     <xf numFmtId="3" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -672,10 +704,37 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -695,10 +754,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -963,24 +1018,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="9.375" customWidth="1"/>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" customWidth="1"/>
+    <col min="2" max="2" width="15.3984375" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="8" max="8" width="20.125" customWidth="1"/>
-    <col min="9" max="9" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.09765625" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" customWidth="1"/>
+    <col min="8" max="8" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="20.25" customHeight="1">
+    <row r="2" spans="1:9" ht="20.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1009,7 +1067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1023,7 +1081,7 @@
         <v>0.04</v>
       </c>
       <c r="E3" s="6">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="F3" s="11">
         <f>D3*B3</f>
@@ -1035,14 +1093,14 @@
       </c>
       <c r="H3" s="13">
         <f>2*F3*F4*E3</f>
-        <v>-2.8799999999999997E-3</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="I3" s="14">
         <f>G3+G4+H3</f>
-        <v>1.2960000000000003E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>4.4640000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -1068,7 +1126,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:9">
       <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
@@ -1087,18 +1145,18 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:9">
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="16">
         <f>SQRT(I3)</f>
-        <v>3.6000000000000004E-2</v>
-      </c>
-      <c r="D6" s="17">
+        <v>6.6813172353960268E-2</v>
+      </c>
+      <c r="D6" s="41">
         <f>C6</f>
-        <v>3.6000000000000004E-2</v>
+        <v>6.6813172353960268E-2</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -1106,28 +1164,24 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:9">
       <c r="B7" s="1"/>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="40" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="D10" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="41"/>
-      <c r="H10">
-        <f>3+1.1875*5</f>
-        <v>8.9375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="B10" s="45"/>
+      <c r="D10" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="44"/>
+      <c r="G10" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="44"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1137,132 +1191,113 @@
       <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="19">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="G11" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="19">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="H11" s="18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="1">
         <v>0.04</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="H12" s="18">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
       <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="42">
         <f>(B11-B12)/B13</f>
-        <v>-1.3333333333333335</v>
+        <v>-0.79999999999999993</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="43">
         <f>E11-0.5*E13*E12^2</f>
-        <v>8.5750000000000007E-2</v>
-      </c>
-      <c r="F14" s="8" t="s">
+        <v>-6.0000000000000026E-2</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="23">
-        <f>G11-0.5*G13*G12^2</f>
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="H14">
-        <f>1.11*1.15</f>
-        <v>1.2765</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="H14" s="43">
+        <f>H11-0.5*H13*H12^2</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
       <c r="B15">
         <f>_xlfn.NORM.S.DIST(B14,TRUE)</f>
-        <v>9.1211219725867806E-2</v>
-      </c>
-      <c r="H15">
-        <f>SQRT(H14)-1</f>
-        <v>0.12982299498638272</v>
-      </c>
-      <c r="J15">
-        <f>13.4/3</f>
-        <v>4.4666666666666668</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="H17">
-        <f>1.05*1.2*0.9</f>
-        <v>1.1340000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="41" t="s">
+        <v>0.21185539858339666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="D18" s="41" t="s">
+      <c r="B18" s="44"/>
+      <c r="D18" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="41"/>
-      <c r="H18">
-        <f>H17^(1/3)</f>
-        <v>1.0428079934659349</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="E18" s="44"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="18">
         <v>0.13</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="18">
         <v>0.11</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1275,11 +1310,9 @@
       <c r="E20" s="2">
         <v>0.02</v>
       </c>
-      <c r="H20" s="24">
-        <v>-10000000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1289,64 +1322,47 @@
       <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="17">
         <v>1.2</v>
       </c>
-      <c r="H21" s="24">
-        <v>-21000000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="19">
         <f>(B19-B20)/B21</f>
         <v>0.45833333333333337</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="19">
         <f>(E19-E20)/E21</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H22" s="24">
-        <v>-126000000</v>
-      </c>
-      <c r="J22">
-        <f>0.0457*2</f>
-        <v>9.1399999999999995E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="H23" s="24">
-        <v>147420000</v>
-      </c>
-      <c r="J23">
-        <f>3*0.9058</f>
-        <v>2.7174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="41" t="s">
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="H24" s="25">
-        <f>IRR(H20:H23)</f>
-        <v>-4.8996242429390047E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="B24" s="44"/>
+      <c r="H24" s="22"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="18">
         <v>0.11</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1354,31 +1370,23 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="17">
         <v>1.2</v>
       </c>
-      <c r="H27">
-        <f>102000*1000</f>
-        <v>102000000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="9">
         <v>0.1</v>
       </c>
-      <c r="H28">
-        <f>110000000</f>
-        <v>110000000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1386,233 +1394,217 @@
         <f>B26+B27*(B28-B26)</f>
         <v>0.11600000000000001</v>
       </c>
-      <c r="H29">
-        <f>H27/H28</f>
-        <v>0.92727272727272725</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="20">
         <f>B25-B29</f>
         <v>-6.0000000000000053E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="H31">
-        <f>0.10382/0.06333*0.66008</f>
-        <v>1.0821017779883151</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="24">
+    <row r="32" spans="1:8">
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="21">
         <v>-10000000</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="24">
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="21">
         <v>-11000000</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="24">
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="21">
         <v>-132000000</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="24">
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="21">
         <v>142560000</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="25">
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="40">
         <f>IRR(B33:B36)</f>
         <v>-5.7464630134328565E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="17.25" thickBot="1"/>
-    <row r="39" spans="2:6" ht="24.75" thickTop="1">
-      <c r="B39" s="26" t="s">
+    <row r="38" spans="1:6">
+      <c r="B38" s="22"/>
+    </row>
+    <row r="39" spans="1:6" ht="18" thickBot="1">
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="27" thickTop="1">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C40" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D40" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E40" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="28" t="s">
+      <c r="F40" s="25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="29">
+    <row r="41" spans="1:6">
+      <c r="A41" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="B41" s="26">
         <v>1</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C41" s="27">
         <v>500</v>
       </c>
-      <c r="D40" s="30">
-        <v>471.69799999999998</v>
-      </c>
-      <c r="E40" s="30">
-        <v>4.8500000000000001E-2</v>
-      </c>
-      <c r="F40" s="31">
-        <f>E40*B40</f>
-        <v>4.8500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="32">
+      <c r="D41" s="37">
+        <f>+C41/(1+$A$41)^B41</f>
+        <v>471.69811320754712</v>
+      </c>
+      <c r="E41" s="36">
+        <f>+D41/$D$46</f>
+        <v>4.9244154240489217E-2</v>
+      </c>
+      <c r="F41" s="38">
+        <f>E41*B41</f>
+        <v>4.9244154240489217E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="B42" s="28">
         <v>2</v>
       </c>
-      <c r="C41" s="33">
+      <c r="C42" s="29">
         <v>500</v>
       </c>
-      <c r="D41" s="33">
-        <v>444.99799999999999</v>
-      </c>
-      <c r="E41" s="33">
-        <v>4.5699999999999998E-2</v>
-      </c>
-      <c r="F41" s="31">
-        <f t="shared" ref="F41:F42" si="0">E41*B41</f>
-        <v>9.1399999999999995E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="32">
+      <c r="D42" s="37">
+        <f t="shared" ref="D42:D45" si="0">+C42/(1+$A$41)^B42</f>
+        <v>444.99822000711993</v>
+      </c>
+      <c r="E42" s="36">
+        <f t="shared" ref="E42:E45" si="1">+D42/$D$46</f>
+        <v>4.6456749283480391E-2</v>
+      </c>
+      <c r="F42" s="38">
+        <f t="shared" ref="F42:F45" si="2">E42*B42</f>
+        <v>9.2913498566960781E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="B43" s="28">
         <v>3</v>
       </c>
-      <c r="C42" s="34">
+      <c r="C43" s="30">
+        <v>500</v>
+      </c>
+      <c r="D43" s="37">
+        <f t="shared" si="0"/>
+        <v>419.8096415161508</v>
+      </c>
+      <c r="E43" s="36">
+        <f t="shared" si="1"/>
+        <v>4.3827121965547534E-2</v>
+      </c>
+      <c r="F43" s="38">
+        <f t="shared" si="2"/>
+        <v>0.13148136589664261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="B44" s="26">
+        <v>4</v>
+      </c>
+      <c r="C44" s="35">
+        <v>500</v>
+      </c>
+      <c r="D44" s="37">
+        <f t="shared" si="0"/>
+        <v>396.04683161901022</v>
+      </c>
+      <c r="E44" s="36">
+        <f t="shared" si="1"/>
+        <v>4.1346341476931635E-2</v>
+      </c>
+      <c r="F44" s="38">
+        <f t="shared" si="2"/>
+        <v>0.16538536590772654</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="B45" s="28">
+        <v>5</v>
+      </c>
+      <c r="C45" s="35">
         <v>10500</v>
       </c>
-      <c r="D42" s="35">
-        <v>8816.0020000000004</v>
-      </c>
-      <c r="E42" s="33">
-        <v>0.90580000000000005</v>
-      </c>
-      <c r="F42" s="31">
+      <c r="D45" s="37">
         <f t="shared" si="0"/>
-        <v>2.7174</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B43" s="36" t="s">
+        <v>7846.2108150935974</v>
+      </c>
+      <c r="E45" s="36">
+        <f t="shared" si="1"/>
+        <v>0.81912563303355113</v>
+      </c>
+      <c r="F45" s="38">
+        <f t="shared" si="2"/>
+        <v>4.0956281651677555</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18" thickBot="1">
+      <c r="B46" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="38">
-        <v>9732.6990000000005</v>
-      </c>
-      <c r="E43" s="39"/>
-      <c r="F43" s="31">
-        <f>SUM(F40:F42)</f>
-        <v>2.8573</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="18" thickTop="1" thickBot="1"/>
-    <row r="45" spans="2:6" ht="24.75" thickTop="1">
-      <c r="B45" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" s="28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="29">
-        <v>1</v>
-      </c>
-      <c r="C46" s="30">
-        <v>400</v>
-      </c>
-      <c r="D46" s="30">
-        <v>380.95</v>
-      </c>
-      <c r="E46" s="30">
-        <v>3.9199999999999999E-2</v>
-      </c>
-      <c r="F46" s="31">
-        <f>E46*B46</f>
-        <v>3.9199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="32">
-        <v>2</v>
-      </c>
-      <c r="C47" s="33">
-        <v>400</v>
-      </c>
-      <c r="D47" s="33">
-        <v>362.81</v>
-      </c>
-      <c r="E47" s="33">
-        <v>3.73E-2</v>
-      </c>
-      <c r="F47" s="31">
-        <f t="shared" ref="F47:F48" si="1">E47*B47</f>
-        <v>7.46E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="32">
-        <v>3</v>
-      </c>
-      <c r="C48" s="34">
-        <v>10400</v>
-      </c>
-      <c r="D48" s="35">
-        <v>8983.91</v>
-      </c>
-      <c r="E48" s="33">
-        <v>0.92349999999999999</v>
-      </c>
-      <c r="F48" s="31">
-        <f t="shared" si="1"/>
-        <v>2.7705000000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B49" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" s="37"/>
-      <c r="D49" s="38">
-        <v>9727.68</v>
-      </c>
-      <c r="E49" s="39"/>
-      <c r="F49" s="31">
-        <f>SUM(F46:F48)</f>
-        <v>2.8843000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" ht="17.25" thickTop="1"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="33">
+        <f>SUM(D41:D45)</f>
+        <v>9578.763621443426</v>
+      </c>
+      <c r="E46" s="34"/>
+      <c r="F46" s="39">
+        <f>SUM(F41:F45)</f>
+        <v>4.5346525497795742</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18" thickTop="1"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
